--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A77E6-FD9C-4681-B528-DB193E1FE76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A035EA-699A-46D1-8555-7A4EE4061363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
   <si>
     <t>SignalName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,448 +247,453 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Action1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Condition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
+    <t>Condition4</t>
+  </si>
+  <si>
+    <t>Condition5</t>
+  </si>
+  <si>
+    <t>Condition6</t>
+  </si>
+  <si>
+    <t>Condition7</t>
+  </si>
+  <si>
+    <t>Condition8</t>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_NEQ_0</t>
+  </si>
+  <si>
+    <t>BDCWLCMSIGNAL_NEQ_0</t>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLB_U8LBSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_EQ_2</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_EQ_1</t>
+  </si>
+  <si>
+    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_DLC_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_DLC_1500ms_TimeOut)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_PRM_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_PRM_350ms_TimeOut)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_EEP_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_EEP_350ms_TimeOut)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_SEE_TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_SEE_350ms_TimeOut)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF2()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_EQ_0</t>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_CHANGETO_0</t>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCWLCMSIGNAL_EQ_0</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_EQ_0</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEL_NO_REQ</t>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEE_NO_REQ</t>
+  </si>
+  <si>
+    <t>VCU_GEAR_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP_AUTO_HOLD</t>
+  </si>
+  <si>
+    <t>POL_STS_ON</t>
+  </si>
+  <si>
+    <t>POL_STS_OFF</t>
+  </si>
+  <si>
+    <t>LBL_STS_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBL_STS_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM_PWR_ON</t>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEP_LGL_ENABLE</t>
+  </si>
+  <si>
+    <t>EEP_LGL_DISABLE</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter1500ms</t>
+  </si>
+  <si>
+    <t>150U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter350ms</t>
+  </si>
+  <si>
+    <t>35U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM_PWR_OFF</t>
+  </si>
+  <si>
+    <t>LGL_Set(ON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Set(OFF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(*10ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_SEE_350ms_TimeOut</t>
+  </si>
+  <si>
+    <t>LGL_SEE_OFF</t>
+  </si>
+  <si>
+    <t>LGL_EEP_350ms_TimeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_EEP_OFF</t>
+  </si>
+  <si>
+    <t>LGL_PRM_350ms_TimeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_PRM_OFF</t>
+  </si>
+  <si>
+    <t>LGL_DLC_1500ms_TimeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_DLC_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(Flag,Time)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(Flag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Set(Status)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Bit_BDC_FrntLogLampCmd(Status)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_uint8_FrntLogLamp(Status)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT_flag-&gt;TimeOutFlag[Flag] = false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT_flag-&gt;TimeOutFlagNum++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT_flag-&gt;TimeOutFlagNum--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariableType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionMacro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_CHANGE_(X,0)</t>
+  </si>
+  <si>
+    <t>DLC_U8TURNLIGHTTWICE_CHANGE_(X,X)</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_CHANGE_(X,0)</t>
+  </si>
+  <si>
+    <t>ESPAUTOHOLDACTVSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>ESPAUTOHOLDACTVSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>PLB_U8LBSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_0</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_1</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_CHANGE_(2,X)</t>
+  </si>
+  <si>
+    <t>TIMEFLAGNUM_EQ_0</t>
+  </si>
+  <si>
+    <t>TIMEFLAGNUM_EQ_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVTName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Action2</t>
-  </si>
-  <si>
-    <t>Condition1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition3</t>
-  </si>
-  <si>
-    <t>Condition4</t>
-  </si>
-  <si>
-    <t>Condition5</t>
-  </si>
-  <si>
-    <t>Condition6</t>
-  </si>
-  <si>
-    <t>Condition7</t>
-  </si>
-  <si>
-    <t>Condition8</t>
-  </si>
-  <si>
-    <t>BDCSEEDSIGNAL_NEQ_0</t>
-  </si>
-  <si>
-    <t>BDCWLCMSIGNAL_NEQ_0</t>
-  </si>
-  <si>
-    <t>AND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLB_U8LBSTS_EQ_1</t>
-  </si>
-  <si>
-    <t>PPL_BOOLPOSNLAMPSTS_EQ_1</t>
-  </si>
-  <si>
-    <t>PRM_U8POWERSTS_EQ_2</t>
-  </si>
-  <si>
-    <t>EEP_LOGO_ENABLE_FLAG_EQ_1</t>
-  </si>
-  <si>
-    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_DLC_TIMEOUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTimer(LGL_DLC_1500ms_TimeOut)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_PRM_TIMEOUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTimer(LGL_PRM_350ms_TimeOut)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_EEP_TIMEOUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTimer(LGL_EEP_350ms_TimeOut)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_SEE_TIMEOUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTimer(LGL_SEE_350ms_TimeOut)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF1()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF2()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDCSEEDSIGNAL_EQ_0</t>
-  </si>
-  <si>
-    <t>PPL_BOOLPOSNLAMPSTS_EQ_0</t>
-  </si>
-  <si>
-    <t>PRM_U8POWERSTS_CHANGETO_0</t>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDCWLCMSIGNAL_EQ_0</t>
-  </si>
-  <si>
-    <t>EEP_LOGO_ENABLE_FLAG_EQ_0</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEL_NO_REQ</t>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEE_NO_REQ</t>
-  </si>
-  <si>
-    <t>VCU_GEAR_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESP_AUTO_HOLD</t>
-  </si>
-  <si>
-    <t>POL_STS_ON</t>
-  </si>
-  <si>
-    <t>POL_STS_OFF</t>
-  </si>
-  <si>
-    <t>LBL_STS_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBL_STS_OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRM_PWR_ON</t>
-  </si>
-  <si>
-    <t>0x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEP_LGL_ENABLE</t>
-  </si>
-  <si>
-    <t>EEP_LGL_DISABLE</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counter1500ms</t>
-  </si>
-  <si>
-    <t>150U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counter350ms</t>
-  </si>
-  <si>
-    <t>35U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRM_PWR_OFF</t>
-  </si>
-  <si>
-    <t>LGL_Set(ON)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Set(OFF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlagName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time(*10ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_SEE_350ms_TimeOut</t>
-  </si>
-  <si>
-    <t>LGL_SEE_OFF</t>
-  </si>
-  <si>
-    <t>LGL_EEP_350ms_TimeOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_EEP_OFF</t>
-  </si>
-  <si>
-    <t>LGL_PRM_350ms_TimeOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_PRM_OFF</t>
-  </si>
-  <si>
-    <t>LGL_DLC_1500ms_TimeOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_DLC_OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(Flag,Time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTimer(Flag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Set(Status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_Bit_BDC_FrntLogLampCmd(Status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_uint8_FrntLogLamp(Status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT_flag-&gt;TimeOutFlag[Flag] = false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT_flag-&gt;TimeOutFlagNum++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT_flag-&gt;TimeOutFlagNum--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VariableType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionMacro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Macro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDCSEEDSIGNAL_CHANGE_(X,0)</t>
-  </si>
-  <si>
-    <t>DLC_U8TURNLIGHTTWICE_CHANGE_(X,X)</t>
-  </si>
-  <si>
-    <t>EEP_LOGO_ENABLE_FLAG_CHANGE_(X,0)</t>
-  </si>
-  <si>
-    <t>ESPAUTOHOLDACTVSTS_EQ_0</t>
-  </si>
-  <si>
-    <t>ESPAUTOHOLDACTVSTS_EQ_1</t>
-  </si>
-  <si>
-    <t>PLB_U8LBSTS_EQ_0</t>
-  </si>
-  <si>
-    <t>PRM_U8POWERSTS_EQ_0</t>
-  </si>
-  <si>
-    <t>VCUGEARPOSN_EQ_0</t>
-  </si>
-  <si>
-    <t>VCUGEARPOSN_EQ_1</t>
-  </si>
-  <si>
-    <t>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE</t>
-  </si>
-  <si>
-    <t>(2,X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRM_U8POWERSTS_CHANGE_(2,X)</t>
-  </si>
-  <si>
-    <t>TIMEFLAGNUM_EQ_0</t>
-  </si>
-  <si>
-    <t>TIMEFLAGNUM_EQ_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>AND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1038,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1144,10 +1149,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2818FAD4-C4A7-4DD1-923C-A41E1523BB10}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,7 +1593,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1704,12 +1709,34 @@
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ref="F27" si="1">UPPER(_xlfn.TEXTJOIN("_",TRUE,A27:C27))</f>
+        <v>VCUGEARPOSN_CHANGE_(2,3)</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -1717,7 +1744,7 @@
           <x14:formula1>
             <xm:f>InputSignal!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C26 A1:A1048576</xm:sqref>
+          <xm:sqref>C2:C27 A1:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B497FADC-FEE4-4517-A5CD-1CBF571EE531}">
           <x14:formula1>
@@ -1742,8 +1769,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1770,37 +1797,37 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
-      </c>
-      <c r="P1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1808,10 +1835,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1819,10 +1846,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1830,16 +1857,16 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1847,16 +1874,16 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1864,16 +1891,16 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1881,16 +1908,16 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1898,16 +1925,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1915,13 +1942,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1929,10 +1956,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1940,16 +1967,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1957,42 +1984,42 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2000,116 +2027,116 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="s">
+        <v>174</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" t="s">
-        <v>177</v>
-      </c>
-      <c r="N18" t="s">
-        <v>166</v>
-      </c>
-      <c r="O18" t="s">
-        <v>177</v>
-      </c>
-      <c r="P18" t="s">
-        <v>91</v>
-      </c>
       <c r="Q18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I19" t="s">
-        <v>177</v>
-      </c>
-      <c r="J19" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N19" t="s">
-        <v>166</v>
-      </c>
-      <c r="O19" t="s">
-        <v>177</v>
-      </c>
-      <c r="P19" t="s">
-        <v>94</v>
-      </c>
       <c r="Q19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2148,10 +2175,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -2159,46 +2186,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2227,135 +2254,135 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2388,12 +2415,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2404,7 +2431,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2415,10 +2442,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2">
         <v>16</v>
@@ -2426,10 +2453,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2">
         <v>5.4</v>
@@ -2437,21 +2464,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2">
         <v>10233333</v>
@@ -2459,10 +2486,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2">
         <v>45</v>
@@ -2480,7 +2507,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2493,13 +2520,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2507,35 +2534,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2563,7 +2590,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -2572,12 +2599,12 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -2586,12 +2613,12 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2600,81 +2627,81 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,7 +2709,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,57 +2725,57 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A035EA-699A-46D1-8555-7A4EE4061363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2F3C9-A7FE-4591-88FC-765B4AEE870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="177">
   <si>
     <t>SignalName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,19 +566,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LGL_Set(Status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_Bit_BDC_FrntLogLampCmd(Status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_uint8_FrntLogLamp(Status)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1149,10 +1137,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2818FAD4-C4A7-4DD1-923C-A41E1523BB10}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1160,13 +1148,12 @@
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="64.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,16 +1164,13 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1197,17 +1181,14 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="str">
+      <c r="E2" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,A2:C2))</f>
         <v>BDCSEEDSIGNAL_NEQ_0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1218,17 +1199,14 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F26" si="0">UPPER(_xlfn.TEXTJOIN("_",TRUE,A3:C3))</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E26" si="0">UPPER(_xlfn.TEXTJOIN("_",TRUE,A3:C3))</f>
         <v>BDCSEEDSIGNAL_CHANGE_(X,0)</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1239,17 +1217,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>BDCSEEDSIGNAL_EQ_0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1260,17 +1235,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>BDCWLCMSIGNAL_NEQ_0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,17 +1253,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>BDCWLCMSIGNAL_EQ_0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1302,17 +1271,14 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>DLC_U8TURNLIGHTTWICE_CHANGE_(X,X)</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1323,17 +1289,14 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1344,17 +1307,14 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>EEP_LOGO_ENABLE_FLAG_CHANGE_(X,0)</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1365,17 +1325,14 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1386,17 +1343,14 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>ESPAUTOHOLDACTVSTS_EQ_0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1407,17 +1361,14 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>ESPAUTOHOLDACTVSTS_EQ_1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1428,17 +1379,14 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>ESPAUTOHOLDACTVSTS_EQ_1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1449,17 +1397,14 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>PLB_U8LBSTS_EQ_0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1470,17 +1415,14 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>PLB_U8LBSTS_EQ_1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1491,17 +1433,14 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>PLB_U8LBSTS_EQ_1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1512,17 +1451,14 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1533,17 +1469,14 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1554,17 +1487,14 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1575,17 +1505,14 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="F20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_EQ_2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1593,20 +1520,17 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_CHANGE_(2,X)</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1617,17 +1541,14 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="F22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_EQ_0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1638,17 +1559,14 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="F23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_EQ_0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1659,17 +1577,14 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
         <v>43</v>
       </c>
-      <c r="F24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_EQ_1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1680,17 +1595,14 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="F25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_EQ_1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1701,17 +1613,14 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1719,16 +1628,13 @@
         <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" ref="F27" si="1">UPPER(_xlfn.TEXTJOIN("_",TRUE,A27:C27))</f>
+      <c r="E27" t="str">
+        <f t="shared" ref="E27" si="1">UPPER(_xlfn.TEXTJOIN("_",TRUE,A27:C27))</f>
         <v>VCUGEARPOSN_CHANGE_(2,3)</v>
       </c>
     </row>
@@ -1739,7 +1645,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{596D4156-A5BE-48C7-B240-1E56FA2BC0B2}">
           <x14:formula1>
             <xm:f>InputSignal!$A:$A</xm:f>
@@ -1752,12 +1658,6 @@
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{14309620-EB49-40BB-9A19-10B2320605AE}">
-          <x14:formula1>
-            <xm:f>List!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1769,7 +1669,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1797,13 +1697,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>
@@ -1860,7 +1760,7 @@
         <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -1877,7 +1777,7 @@
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -1894,7 +1794,7 @@
         <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1911,7 +1811,7 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -1948,7 +1848,7 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1959,7 +1859,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1973,10 +1873,10 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1987,7 +1887,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2044,46 +1944,46 @@
         <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
         <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P18" t="s">
         <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2097,46 +1997,46 @@
         <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
         <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s">
         <v>92</v>
       </c>
       <c r="Q19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2407,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2525,22 +2425,13 @@
       <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2548,10 +2439,10 @@
         <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,10 +2450,10 @@
         <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2468,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2590,7 +2481,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -2599,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,12 +2518,12 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2643,7 +2534,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2654,7 +2545,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -2665,18 +2556,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -2687,13 +2578,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,32 +2641,32 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A2F3C9-A7FE-4591-88FC-765B4AEE870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B6592-EB20-4BC0-B06E-E955073BA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="176">
   <si>
     <t>SignalName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>PPL_BOOLPOSNLAMPSTS_EQ_0</t>
-  </si>
-  <si>
-    <t>PRM_U8POWERSTS_CHANGETO_0</t>
   </si>
   <si>
     <t>LGL_Normal_OFF2</t>
@@ -1139,7 +1136,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1164,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,7 +1517,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -1628,7 +1625,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1669,8 +1666,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1697,13 +1694,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>
@@ -1735,7 +1732,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -1746,7 +1743,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
@@ -1757,10 +1754,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -1774,10 +1771,10 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -1791,10 +1788,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1808,10 +1805,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -1825,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>70</v>
@@ -1842,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1859,7 +1856,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1873,10 +1870,10 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1887,7 +1884,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1938,105 +1935,105 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
         <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>170</v>
+      </c>
+      <c r="P18" t="s">
         <v>163</v>
       </c>
-      <c r="M18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O18" t="s">
-        <v>171</v>
-      </c>
-      <c r="P18" t="s">
-        <v>89</v>
-      </c>
       <c r="Q18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
         <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +2072,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -2086,46 +2083,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2154,135 +2151,135 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
         <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
         <v>110</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
         <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2315,12 +2312,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2331,7 +2328,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2342,10 +2339,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
       </c>
       <c r="C4" s="2">
         <v>16</v>
@@ -2353,10 +2350,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
       </c>
       <c r="C5" s="2">
         <v>5.4</v>
@@ -2364,21 +2361,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
       </c>
       <c r="C7" s="2">
         <v>10233333</v>
@@ -2386,10 +2383,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
       </c>
       <c r="C8" s="2">
         <v>45</v>
@@ -2420,10 +2417,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,29 +2428,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -2490,12 +2487,12 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2518,12 +2515,12 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2545,29 +2542,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -2578,21 +2575,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2600,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,7 +2605,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,32 +2638,32 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B6592-EB20-4BC0-B06E-E955073BA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4877AF8-6C5A-4427-BF7D-C62B8C1217E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="779" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F30" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1666,7 +1666,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -2465,7 +2465,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
         <v>160</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
         <v>161</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>162</v>
@@ -2667,6 +2667,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4877AF8-6C5A-4427-BF7D-C62B8C1217E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CB5413-7B21-4452-A5EC-A1E859141CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="779" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="174">
   <si>
     <t>SignalName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,31 +470,18 @@
     <t>LGL_SEE_350ms_TimeOut</t>
   </si>
   <si>
-    <t>LGL_SEE_OFF</t>
-  </si>
-  <si>
     <t>LGL_EEP_350ms_TimeOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LGL_EEP_OFF</t>
-  </si>
-  <si>
     <t>LGL_PRM_350ms_TimeOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LGL_PRM_OFF</t>
-  </si>
-  <si>
     <t>LGL_DLC_1500ms_TimeOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LGL_DLC_OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,6 +666,14 @@
   </si>
   <si>
     <t>Action2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_OFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,8 +1018,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F30" sqref="F29:F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1136,8 +1131,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -1625,7 +1620,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1666,8 +1661,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1694,13 +1689,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>
@@ -1757,7 +1752,7 @@
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -1774,7 +1769,7 @@
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
@@ -1791,7 +1786,7 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1808,7 +1803,7 @@
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -1845,7 +1840,7 @@
         <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1856,7 +1851,7 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1870,10 +1865,10 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1884,7 +1879,7 @@
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1941,46 +1936,46 @@
         <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
         <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
         <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1994,46 +1989,46 @@
         <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
         <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s">
         <v>91</v>
       </c>
       <c r="Q19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2059,8 +2054,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2089,40 +2084,40 @@
         <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2137,7 +2132,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2312,12 +2307,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2328,7 +2323,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2339,10 +2334,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2">
         <v>16</v>
@@ -2350,10 +2345,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2">
         <v>5.4</v>
@@ -2361,21 +2356,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2">
         <v>10233333</v>
@@ -2383,10 +2378,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2">
         <v>45</v>
@@ -2417,10 +2412,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,29 +2423,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2466,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -2487,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,7 +2507,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2515,7 +2516,7 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,7 +2532,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -2542,7 +2543,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -2553,18 +2554,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -2575,18 +2576,18 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -2594,18 +2595,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,32 +2639,32 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CB5413-7B21-4452-A5EC-A1E859141CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF41EE-733B-4FFC-8E83-28D5D08001E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="779" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="173">
   <si>
     <t>SignalName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,11 +669,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LGL_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_OFF</t>
+    <t>ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2050,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2398,8 +2394,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2425,7 @@
         <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/python/ConfigByHand.xlsx
+++ b/python/ConfigByHand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF41EE-733B-4FFC-8E83-28D5D08001E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520BC5BB-749D-427E-8C14-E827F9725E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" tabRatio="779" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2394,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2461,8 +2461,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
